--- a/biology/Botanique/Fucus_ceranoides/Fucus_ceranoides.xlsx
+++ b/biology/Botanique/Fucus_ceranoides/Fucus_ceranoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fucus ceranoides est une espèce d'algues brunes marines de la famille des Fucaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Synonymes hétérotypiques[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Synonymes hétérotypiques :
 Fucus harveyanus Decaisne ex J.Agardh 1868
 Fucus divergens J.Agardh 1872
 Fucus ceranoides f. divergens (J.Agardh) Kjellman 1880
@@ -545,9 +559,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Fucus ceranoides se retrouve sur tout le littoral de l'Europe de l'ouest, incluant la Grande-Bretagne, le Spitzberg, l'Islande, les Açores et les Îles Canaries[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fucus ceranoides se retrouve sur tout le littoral de l'Europe de l'ouest, incluant la Grande-Bretagne, le Spitzberg, l'Islande, les Açores et les Îles Canaries.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des formes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (7 juillet 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (7 juillet 2018) :
 variété Fucus ceranoides var. glomerata (Batters) Lynn
 variété Fucus ceranoides var. linearis Batters
 variété Fucus ceranoides var. longifructus (De Candolle) C.Agardh
